--- a/biology/Botanique/Festival_canadien_des_tulipes/Festival_canadien_des_tulipes.xlsx
+++ b/biology/Botanique/Festival_canadien_des_tulipes/Festival_canadien_des_tulipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Festival canadien des tulipes (en anglais : Canadian Tulip Festival, en néerlandais : Festival de Canadese van de Tulp ) est un festival des tulipes  qui a lieu chaque année en mai à Ottawa, au Canada.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1945, les Pays-Bas font, chaque année, un don de tulipes au Canada symbolisant l'amitié qui règne entre les deux pays. En 1952, faisant suite à l'initiative du photographe canadien d'origine arménienne, Malak Karsh (en), de faire connaître par ses photos la capitale du Canada, la Chambre de commerce d’Ottawa donna naissance au premier festival des tulipes dans cette ville. Près d'un demi-siècle plus tard, en 2001, on fit de la tulipe la fleur officielle de la ville. Ce sont des millions de tulipes qui sont plantées au mois de mai par la Commission de la capitale nationale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1945, les Pays-Bas font, chaque année, un don de tulipes au Canada symbolisant l'amitié qui règne entre les deux pays. En 1952, faisant suite à l'initiative du photographe canadien d'origine arménienne, Malak Karsh (en), de faire connaître par ses photos la capitale du Canada, la Chambre de commerce d’Ottawa donna naissance au premier festival des tulipes dans cette ville. Près d'un demi-siècle plus tard, en 2001, on fit de la tulipe la fleur officielle de la ville. Ce sont des millions de tulipes qui sont plantées au mois de mai par la Commission de la capitale nationale.
 </t>
         </is>
       </c>
